--- a/web/data/демография/браки/браки 2009.xlsx
+++ b/web/data/демография/браки/браки 2009.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Число браков</t>
-  </si>
-  <si>
-    <t>На 1000 населения</t>
   </si>
   <si>
     <t>Всего по области</t>
@@ -150,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -237,21 +234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -267,21 +249,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -321,19 +288,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -359,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -371,18 +325,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,16 +339,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +357,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -490,6 +440,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -524,6 +475,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -699,716 +651,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2009</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="9">
+        <v>19519</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11">
-        <v>19519</v>
-      </c>
-      <c r="C2" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="D2" s="12">
-        <v>12208</v>
-      </c>
-      <c r="E2" s="13">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="6">
+        <v>7299</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="8">
-        <v>7299</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4349</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>143</v>
       </c>
       <c r="C4" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D4" s="2">
         <v>70</v>
       </c>
-      <c r="E4" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>167</v>
       </c>
       <c r="C5" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="D5" s="2">
         <v>137</v>
       </c>
-      <c r="E5" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>268</v>
       </c>
       <c r="C6" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="D6" s="2">
         <v>175</v>
       </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>231</v>
       </c>
       <c r="C7" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>111</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>1650</v>
       </c>
       <c r="C8" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D8" s="2">
         <v>1160</v>
       </c>
-      <c r="E8" s="4">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>807</v>
       </c>
       <c r="C9" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="D9" s="2">
         <v>516</v>
       </c>
-      <c r="E9" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>99</v>
       </c>
       <c r="C10" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D10" s="2">
         <v>57</v>
       </c>
-      <c r="E10" s="4">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>782</v>
       </c>
       <c r="C11" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D11" s="2">
         <v>500</v>
       </c>
-      <c r="E11" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>55</v>
       </c>
       <c r="C12" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D12" s="2">
         <v>36</v>
       </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>138</v>
       </c>
       <c r="C13" s="2">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
         <v>71</v>
       </c>
-      <c r="E13" s="4">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>77</v>
       </c>
       <c r="C14" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="D14" s="2">
         <v>57</v>
       </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>121</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2">
         <v>65</v>
       </c>
-      <c r="E15" s="4">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>385</v>
       </c>
       <c r="C16" s="2">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2">
         <v>204</v>
       </c>
-      <c r="E16" s="4">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>109</v>
       </c>
       <c r="C17" s="2">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2">
         <v>60</v>
       </c>
-      <c r="E17" s="4">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>264</v>
       </c>
       <c r="C18" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="D18" s="2">
         <v>171</v>
       </c>
-      <c r="E18" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>305</v>
       </c>
       <c r="C19" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="D19" s="2">
         <v>158</v>
       </c>
-      <c r="E19" s="4">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>248</v>
       </c>
       <c r="C20" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="D20" s="2">
         <v>128</v>
       </c>
-      <c r="E20" s="4">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>95</v>
       </c>
       <c r="C21" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="D21" s="2">
         <v>86</v>
       </c>
-      <c r="E21" s="4">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>119</v>
       </c>
       <c r="C22" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="D22" s="2">
         <v>110</v>
       </c>
-      <c r="E22" s="4">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>483</v>
       </c>
       <c r="C23" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="D23" s="2">
         <v>334</v>
       </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>84</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
         <v>85</v>
       </c>
-      <c r="E24" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>262</v>
       </c>
       <c r="C25" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="D25" s="2">
         <v>150</v>
       </c>
-      <c r="E25" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>139</v>
       </c>
       <c r="C26" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="D26" s="2">
         <v>93</v>
       </c>
-      <c r="E26" s="4">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>119</v>
       </c>
       <c r="C27" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="D27" s="2">
         <v>69</v>
       </c>
-      <c r="E27" s="4">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>350</v>
       </c>
       <c r="C28" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D28" s="2">
         <v>206</v>
       </c>
-      <c r="E28" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>119</v>
       </c>
       <c r="C29" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="D29" s="2">
         <v>53</v>
       </c>
-      <c r="E29" s="4">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>532</v>
       </c>
       <c r="C30" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="D30" s="2">
         <v>242</v>
       </c>
-      <c r="E30" s="4">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>121</v>
       </c>
       <c r="C31" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="D31" s="2">
         <v>78</v>
       </c>
-      <c r="E31" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>101</v>
       </c>
       <c r="C32" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="D32" s="2">
         <v>65</v>
       </c>
-      <c r="E32" s="4">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>347</v>
       </c>
       <c r="C33" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D33" s="2">
         <v>262</v>
       </c>
-      <c r="E33" s="4">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>136</v>
       </c>
       <c r="C34" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="D34" s="2">
         <v>112</v>
       </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>140</v>
       </c>
       <c r="C35" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="D35" s="2">
         <v>163</v>
       </c>
-      <c r="E35" s="4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>218</v>
       </c>
       <c r="C36" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="D36" s="2">
         <v>153</v>
       </c>
-      <c r="E36" s="4">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>319</v>
       </c>
       <c r="C37" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="D37" s="2">
         <v>196</v>
       </c>
-      <c r="E37" s="4">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>74</v>
       </c>
       <c r="C38" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="D38" s="2">
         <v>39</v>
       </c>
-      <c r="E38" s="4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>130</v>
       </c>
       <c r="C39" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="D39" s="2">
         <v>76</v>
       </c>
-      <c r="E39" s="4">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>182</v>
       </c>
       <c r="C40" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="D40" s="2">
         <v>114</v>
       </c>
-      <c r="E40" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="6">
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
         <v>2301</v>
       </c>
-      <c r="C41" s="6">
-        <v>8</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="5">
         <v>1497</v>
-      </c>
-      <c r="E41" s="7">
-        <v>5.2</v>
       </c>
     </row>
   </sheetData>
@@ -1418,12 +1123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1431,12 +1136,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
